--- a/data/trans_camb/P12A1_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,02</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,07</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,74</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 8,25</t>
+          <t>-6,15; 4,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 6,32</t>
+          <t>-4,02; 7,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 8,86</t>
+          <t>-7,65; 5,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 12,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 17,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 23,38</t>
+          <t>-5,45; 4,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 5,65</t>
+          <t>-5,32; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 8,63</t>
+          <t>-3,52; 9,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 15,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 3,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 4,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 5,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,37%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-21,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>-5,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 18,01</t>
+          <t>-56,03; 119,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 14,88</t>
+          <t>-35,35; 201,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 24,31</t>
+          <t>-72,3; 134,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 66,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 89,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 128,3</t>
+          <t>-51,33; 108,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 17,97</t>
+          <t>-49,87; 96,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 29,65</t>
+          <t>-34,21; 183,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 51,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-43,04; 60,25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-26,17; 104,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-40,16; 94,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 16,75</t>
+          <t>-3,61; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 10,5</t>
+          <t>-3,11; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 28,19</t>
+          <t>-4,43; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 18,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 28,14</t>
+          <t>-3,59; 2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 13,32</t>
+          <t>-2,45; 3,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 11,24</t>
+          <t>-0,51; 7,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 23,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 2,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 3,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 4,29</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 38,99</t>
+          <t>-41,11; 76,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 24,74</t>
+          <t>-35,11; 86,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 69,62</t>
+          <t>-49,78; 79,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 49,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 55,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 76,97</t>
+          <t>-43,29; 55,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 30,57</t>
+          <t>-28,85; 87,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 25,49</t>
+          <t>-6,67; 165,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 56,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; 41,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; 63,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,69; 82,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,74</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 37,22</t>
+          <t>-3,32; 4,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 30,92</t>
+          <t>-4,48; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 51,1</t>
+          <t>-2,42; 5,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 25,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 20,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 26,93</t>
+          <t>-1,72; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 22,34</t>
+          <t>-2,33; 3,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 16,19</t>
+          <t>-1,62; 4,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 29,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 2,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 1,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 3,89</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-20,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 115,66</t>
+          <t>-46,7; 128,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 86,71</t>
+          <t>-62,51; 61,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 177,16</t>
+          <t>-41,97; 167,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 79,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 61,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 83,58</t>
+          <t>-35,58; 181,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 61,66</t>
+          <t>-42,48; 136,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 44,02</t>
+          <t>-34,32; 208,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 78,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-28,02; 87,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 53,12</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 112,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 8,23</t>
+          <t>-1,26; 6,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 16,72</t>
+          <t>-1,96; 5,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 8,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 10,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 17,6</t>
+          <t>-4,16; 2,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 4,98</t>
+          <t>-2,92; 4,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 15,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 3,34</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 4,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>-17,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 17,67</t>
+          <t>-17,15; 122,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 10,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 38,18</t>
+          <t>-25,41; 114,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 25,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 31,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 51,73</t>
+          <t>-51,83; 43,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 12,21</t>
+          <t>-35,56; 83,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 37,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-19,48; 63,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 71,28</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,59</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,64</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 1,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 3,82</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 1,72</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 2,63</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31,96%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 51,47</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-21,84; 47,4</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-21,24; 47,16</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 25,4</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; 38,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 72,44</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 30,77</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 30,8</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 47,26</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
